--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ratio Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -487,949 +488,881 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.212</v>
+        <v>43.07795953848586</v>
       </c>
       <c r="C2" t="n">
-        <v>2.988666666666667</v>
+        <v>40.18806295821776</v>
       </c>
       <c r="D2" t="n">
-        <v>1.074726745482935</v>
+        <v>1.003763681184198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1430734077318354</v>
+        <v>1.804049587967636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2643284392749365</v>
+        <v>3.418269469976772</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>40.02631578947368</v>
       </c>
       <c r="H2" t="n">
-        <v>2.69</v>
+        <v>35.70588235294117</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>44.67567567567568</v>
       </c>
       <c r="J2" t="n">
-        <v>3.58</v>
+        <v>47.56756756756756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>minutes_full_otip</t>
+          <t>total_distance_full_tip</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.848</v>
+        <v>37912.29730519994</v>
       </c>
       <c r="C3" t="n">
-        <v>19.04466666666666</v>
+        <v>36368.98142873966</v>
       </c>
       <c r="D3" t="n">
-        <v>1.067047661736142</v>
+        <v>0.9105637003018707</v>
       </c>
       <c r="E3" t="n">
-        <v>1.218675510544131</v>
+        <v>2066.412088921724</v>
       </c>
       <c r="F3" t="n">
-        <v>1.262095008120946</v>
+        <v>2328.777700280471</v>
       </c>
       <c r="G3" t="n">
-        <v>16.86</v>
+        <v>34637.57894736842</v>
       </c>
       <c r="H3" t="n">
-        <v>16.31</v>
+        <v>32626.35294117647</v>
       </c>
       <c r="I3" t="n">
-        <v>19.7</v>
+        <v>39666.86486486487</v>
       </c>
       <c r="J3" t="n">
-        <v>21.45</v>
+        <v>40923.35135135135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>meddecel_count_full_tip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.326</v>
+        <v>278.8151019440493</v>
       </c>
       <c r="C4" t="n">
-        <v>58.65866666666666</v>
+        <v>265.5865184592739</v>
       </c>
       <c r="D4" t="n">
-        <v>1.062519889075783</v>
+        <v>0.8971921770437969</v>
       </c>
       <c r="E4" t="n">
-        <v>4.675733097600848</v>
+        <v>19.22662352853307</v>
       </c>
       <c r="F4" t="n">
-        <v>5.778326335375604</v>
+        <v>19.54720228188021</v>
       </c>
       <c r="G4" t="n">
-        <v>58.48</v>
+        <v>248.2105263157895</v>
       </c>
       <c r="H4" t="n">
-        <v>48.81</v>
+        <v>235.7647058823529</v>
       </c>
       <c r="I4" t="n">
-        <v>70.34</v>
+        <v>298.2432432432432</v>
       </c>
       <c r="J4" t="n">
-        <v>66.93000000000001</v>
+        <v>306.8648648648648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>highaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.72</v>
+        <v>22.41780464675201</v>
       </c>
       <c r="C5" t="n">
-        <v>1.627333333333333</v>
+        <v>21.84378565892498</v>
       </c>
       <c r="D5" t="n">
-        <v>1.056943875460877</v>
+        <v>0.8476911988722098</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1826198236774968</v>
+        <v>1.766957316097681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1974648853654263</v>
+        <v>1.142454331424871</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>20.2972972972973</v>
       </c>
       <c r="H5" t="n">
-        <v>1.36</v>
+        <v>20.23529411764706</v>
       </c>
       <c r="I5" t="n">
-        <v>2.02</v>
+        <v>25.08333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>sprint_distance_full_tip</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.77</v>
+        <v>835.3134660976766</v>
       </c>
       <c r="C6" t="n">
-        <v>19.74866666666667</v>
+        <v>788.8824798265357</v>
       </c>
       <c r="D6" t="n">
-        <v>1.051716571582892</v>
+        <v>0.819682072744912</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9774456506629918</v>
+        <v>51.89725678631734</v>
       </c>
       <c r="F6" t="n">
-        <v>1.555326638484969</v>
+        <v>76.13923929296327</v>
       </c>
       <c r="G6" t="n">
-        <v>19.21</v>
+        <v>755.6052631578947</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73</v>
+        <v>657.6111111111111</v>
       </c>
       <c r="I6" t="n">
-        <v>21.77</v>
+        <v>896.8333333333334</v>
       </c>
       <c r="J6" t="n">
-        <v>23.12</v>
+        <v>907.921052631579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>medaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2842.324</v>
+        <v>392.7206495969654</v>
       </c>
       <c r="C7" t="n">
-        <v>2981.961333333333</v>
+        <v>378.1705047880899</v>
       </c>
       <c r="D7" t="n">
-        <v>1.049127873294295</v>
+        <v>0.8183610641978377</v>
       </c>
       <c r="E7" t="n">
-        <v>217.7309814426967</v>
+        <v>30.18429608135872</v>
       </c>
       <c r="F7" t="n">
-        <v>223.3528151623622</v>
+        <v>24.29285216229298</v>
       </c>
       <c r="G7" t="n">
-        <v>2624.67</v>
+        <v>345.3684210526316</v>
       </c>
       <c r="H7" t="n">
-        <v>2572.76</v>
+        <v>341.0882352941176</v>
       </c>
       <c r="I7" t="n">
-        <v>3171.95</v>
+        <v>421.6756756756757</v>
       </c>
       <c r="J7" t="n">
-        <v>3334.1</v>
+        <v>426.7837837837838</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>running_distance_full_tip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.134</v>
+        <v>6039.2</v>
       </c>
       <c r="C8" t="n">
-        <v>2.998</v>
+        <v>5823.339042275358</v>
       </c>
       <c r="D8" t="n">
-        <v>1.045363575717145</v>
+        <v>0.7946782048852896</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1467310464761974</v>
+        <v>442.3750533663978</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2964118756055499</v>
+        <v>412.9608627670697</v>
       </c>
       <c r="G8" t="n">
-        <v>2.97</v>
+        <v>5611.783783783784</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>5104.131578947368</v>
       </c>
       <c r="I8" t="n">
-        <v>3.35</v>
+        <v>6685.394736842105</v>
       </c>
       <c r="J8" t="n">
-        <v>3.54</v>
+        <v>6560.72972972973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>sprint_count_full_tip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2824.992</v>
+        <v>42.03405247352616</v>
       </c>
       <c r="C9" t="n">
-        <v>2704.427333333333</v>
+        <v>40.33372418898735</v>
       </c>
       <c r="D9" t="n">
-        <v>1.044580479268439</v>
+        <v>0.6760621245124644</v>
       </c>
       <c r="E9" t="n">
-        <v>92.58843621100857</v>
+        <v>2.570313890578731</v>
       </c>
       <c r="F9" t="n">
-        <v>186.9935980747801</v>
+        <v>3.89549543514882</v>
       </c>
       <c r="G9" t="n">
-        <v>2680.71</v>
+        <v>38.31578947368421</v>
       </c>
       <c r="H9" t="n">
-        <v>2454.19</v>
+        <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>2936.86</v>
+        <v>45.07894736842105</v>
       </c>
       <c r="J9" t="n">
-        <v>3083.84</v>
+        <v>47.02702702702702</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>hi_distance_full_tip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.244</v>
+        <v>3187.744705231547</v>
       </c>
       <c r="C10" t="n">
-        <v>28.12200000000001</v>
+        <v>3090.024047231663</v>
       </c>
       <c r="D10" t="n">
-        <v>1.039897589076168</v>
+        <v>0.6750169795924991</v>
       </c>
       <c r="E10" t="n">
-        <v>1.457919750877942</v>
+        <v>215.7537026835957</v>
       </c>
       <c r="F10" t="n">
-        <v>1.952189979045511</v>
+        <v>241.9822915721011</v>
       </c>
       <c r="G10" t="n">
-        <v>26.73</v>
+        <v>2908.28947368421</v>
       </c>
       <c r="H10" t="n">
-        <v>25.66</v>
+        <v>2756.631578947368</v>
       </c>
       <c r="I10" t="n">
-        <v>30.28</v>
+        <v>3415.578947368421</v>
       </c>
       <c r="J10" t="n">
-        <v>32.16</v>
+        <v>3483.297297297298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>highaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>449.808</v>
+        <v>23.06278647068121</v>
       </c>
       <c r="C11" t="n">
-        <v>433.0593333333334</v>
+        <v>21.87721370721371</v>
       </c>
       <c r="D11" t="n">
-        <v>1.038675223872325</v>
+        <v>0.6600039569576901</v>
       </c>
       <c r="E11" t="n">
-        <v>20.97683651078018</v>
+        <v>2.246411429220373</v>
       </c>
       <c r="F11" t="n">
-        <v>32.88141669407698</v>
+        <v>2.629106640832466</v>
       </c>
       <c r="G11" t="n">
-        <v>418.62</v>
+        <v>19.81578947368421</v>
       </c>
       <c r="H11" t="n">
-        <v>367.34</v>
+        <v>18.32432432432432</v>
       </c>
       <c r="I11" t="n">
-        <v>474.85</v>
+        <v>25.69444444444444</v>
       </c>
       <c r="J11" t="n">
-        <v>494.39</v>
+        <v>27.89189189189189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>hi_count_full_tip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.678</v>
+        <v>265.7587719298245</v>
       </c>
       <c r="C12" t="n">
-        <v>1.618</v>
+        <v>257.9934589215084</v>
       </c>
       <c r="D12" t="n">
-        <v>1.03708281829419</v>
+        <v>0.6585827410165572</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1886001060445089</v>
+        <v>20.0632245474992</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08046294621927357</v>
+        <v>19.25306162275538</v>
       </c>
       <c r="G12" t="n">
-        <v>1.51</v>
+        <v>238.8947368421053</v>
       </c>
       <c r="H12" t="n">
-        <v>1.52</v>
+        <v>227.7058823529412</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>286.8157894736842</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>292.4864864864865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>minutes_full_tip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.242</v>
+        <v>223.7247194562984</v>
       </c>
       <c r="C13" t="n">
-        <v>18.56666666666667</v>
+        <v>217.6597347325211</v>
       </c>
       <c r="D13" t="n">
-        <v>1.03637342908438</v>
+        <v>0.6495191120593956</v>
       </c>
       <c r="E13" t="n">
-        <v>0.768518054439842</v>
+        <v>17.55049506098603</v>
       </c>
       <c r="F13" t="n">
-        <v>1.45486703696183</v>
+        <v>15.53115578420854</v>
       </c>
       <c r="G13" t="n">
-        <v>18.02</v>
+        <v>200.578947368421</v>
       </c>
       <c r="H13" t="n">
-        <v>16.89</v>
+        <v>192.7058823529412</v>
       </c>
       <c r="I13" t="n">
-        <v>20.02</v>
+        <v>241.7368421052632</v>
       </c>
       <c r="J13" t="n">
-        <v>21.53</v>
+        <v>245.4594594594595</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>total_metersperminute_full_tip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>237.584</v>
+        <v>1931.688721510985</v>
       </c>
       <c r="C14" t="n">
-        <v>229.7613333333333</v>
+        <v>1926.662618168214</v>
       </c>
       <c r="D14" t="n">
-        <v>1.034046924054526</v>
+        <v>0.5919116887845703</v>
       </c>
       <c r="E14" t="n">
-        <v>13.62441301487884</v>
+        <v>124.2866861270833</v>
       </c>
       <c r="F14" t="n">
-        <v>18.56960260620515</v>
+        <v>47.7370640042684</v>
       </c>
       <c r="G14" t="n">
-        <v>224.83</v>
+        <v>1802.196111111111</v>
       </c>
       <c r="H14" t="n">
-        <v>198.39</v>
+        <v>1859.296</v>
       </c>
       <c r="I14" t="n">
-        <v>257.54</v>
+        <v>2112.557894736842</v>
       </c>
       <c r="J14" t="n">
-        <v>262.49</v>
+        <v>2017.006756756757</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>hsr_distance_full_tip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.664</v>
+        <v>2352.431239133871</v>
       </c>
       <c r="C15" t="n">
-        <v>24.46133333333334</v>
+        <v>2301.141567405127</v>
       </c>
       <c r="D15" t="n">
-        <v>1.033693937345053</v>
+        <v>0.58724453901471</v>
       </c>
       <c r="E15" t="n">
-        <v>2.70424296245733</v>
+        <v>180.0706048595034</v>
       </c>
       <c r="F15" t="n">
-        <v>2.166606519311666</v>
+        <v>174.9257849494258</v>
       </c>
       <c r="G15" t="n">
-        <v>20.92</v>
+        <v>2152.684210526316</v>
       </c>
       <c r="H15" t="n">
-        <v>19.89</v>
+        <v>2028.736842105263</v>
       </c>
       <c r="I15" t="n">
-        <v>27.98</v>
+        <v>2576.342105263158</v>
       </c>
       <c r="J15" t="n">
-        <v>28.23</v>
+        <v>2595.108108108108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>total_metersperminute_full_otip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.8</v>
+        <v>2052.954703255888</v>
       </c>
       <c r="C16" t="n">
-        <v>19.18266666666667</v>
+        <v>2054.780069440092</v>
       </c>
       <c r="D16" t="n">
-        <v>1.03218183081949</v>
+        <v>0.5270661558101092</v>
       </c>
       <c r="E16" t="n">
-        <v>1.154296322440647</v>
+        <v>132.5511653665204</v>
       </c>
       <c r="F16" t="n">
-        <v>1.484469441857771</v>
+        <v>82.6271374705141</v>
       </c>
       <c r="G16" t="n">
-        <v>18.49</v>
+        <v>1855.891944444445</v>
       </c>
       <c r="H16" t="n">
-        <v>16.76</v>
+        <v>1919.415405405405</v>
       </c>
       <c r="I16" t="n">
-        <v>21.26</v>
+        <v>2207.652162162162</v>
       </c>
       <c r="J16" t="n">
-        <v>22.04</v>
+        <v>2272.552222222223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>total_distance_full_otip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.666</v>
+        <v>37976.47255413308</v>
       </c>
       <c r="C17" t="n">
-        <v>16.18466666666667</v>
+        <v>40250.32098466204</v>
       </c>
       <c r="D17" t="n">
-        <v>1.029740083206327</v>
+        <v>0.4130981600348653</v>
       </c>
       <c r="E17" t="n">
-        <v>1.015888773439298</v>
+        <v>1218.967684573305</v>
       </c>
       <c r="F17" t="n">
-        <v>1.201105839672441</v>
+        <v>2968.429064875285</v>
       </c>
       <c r="G17" t="n">
-        <v>15.52</v>
+        <v>36469.05263157895</v>
       </c>
       <c r="H17" t="n">
-        <v>14.23</v>
+        <v>33863.13513513513</v>
       </c>
       <c r="I17" t="n">
-        <v>17.91</v>
+        <v>39737.52777777778</v>
       </c>
       <c r="J17" t="n">
-        <v>18.5</v>
+        <v>44247.27777777778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_distance_full_otip</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175.258</v>
+        <v>2889.921906116643</v>
       </c>
       <c r="C18" t="n">
-        <v>171.1033333333334</v>
+        <v>2878.475614489081</v>
       </c>
       <c r="D18" t="n">
-        <v>1.024281623190664</v>
+        <v>0.2849995316141286</v>
       </c>
       <c r="E18" t="n">
-        <v>10.2968378641212</v>
+        <v>151.9073601325664</v>
       </c>
       <c r="F18" t="n">
-        <v>13.45105235748525</v>
+        <v>455.2798591713864</v>
       </c>
       <c r="G18" t="n">
-        <v>163.19</v>
+        <v>2683.810810810811</v>
       </c>
       <c r="H18" t="n">
-        <v>146.01</v>
+        <v>2372.567567567567</v>
       </c>
       <c r="I18" t="n">
-        <v>187.2</v>
+        <v>3112.351351351351</v>
       </c>
       <c r="J18" t="n">
-        <v>195.56</v>
+        <v>4224.083333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hi_distance_full_otip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>547.48</v>
+        <v>3645.75152520942</v>
       </c>
       <c r="C19" t="n">
-        <v>558.4006666666667</v>
+        <v>3651.240111992898</v>
       </c>
       <c r="D19" t="n">
-        <v>1.019947151798544</v>
+        <v>0.238701312004126</v>
       </c>
       <c r="E19" t="n">
-        <v>36.60726703811692</v>
+        <v>192.1082580171873</v>
       </c>
       <c r="F19" t="n">
-        <v>65.24792952015157</v>
+        <v>585.3472947855797</v>
       </c>
       <c r="G19" t="n">
-        <v>498.02</v>
+        <v>3382.486486486487</v>
       </c>
       <c r="H19" t="n">
-        <v>471.52</v>
+        <v>2993.783783783784</v>
       </c>
       <c r="I19" t="n">
-        <v>588.48</v>
+        <v>3925.081081081081</v>
       </c>
       <c r="J19" t="n">
-        <v>715.29</v>
+        <v>5389.777777777777</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>highdecel_count_full_otip</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.46599999999999</v>
+        <v>55.24603287498024</v>
       </c>
       <c r="C20" t="n">
-        <v>57.25266666666667</v>
+        <v>55.60428005545653</v>
       </c>
       <c r="D20" t="n">
-        <v>1.013931687505166</v>
+        <v>0.2301823971017243</v>
       </c>
       <c r="E20" t="n">
-        <v>3.042988662482986</v>
+        <v>4.373797607140837</v>
       </c>
       <c r="F20" t="n">
-        <v>9.75720427366852</v>
+        <v>6.117368018980944</v>
       </c>
       <c r="G20" t="n">
-        <v>51.81</v>
+        <v>50.7027027027027</v>
       </c>
       <c r="H20" t="n">
-        <v>43.01</v>
+        <v>47.10810810810811</v>
       </c>
       <c r="I20" t="n">
-        <v>59.44</v>
+        <v>60.30555555555556</v>
       </c>
       <c r="J20" t="n">
-        <v>85.64</v>
+        <v>71.22222222222223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>hsr_count_full_otip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33.044</v>
+        <v>265.2767425320056</v>
       </c>
       <c r="C21" t="n">
-        <v>33.474</v>
+        <v>267.9628194685779</v>
       </c>
       <c r="D21" t="n">
-        <v>1.013012952427067</v>
+        <v>0.1992621322240255</v>
       </c>
       <c r="E21" t="n">
-        <v>2.852661914773639</v>
+        <v>14.19774683472161</v>
       </c>
       <c r="F21" t="n">
-        <v>2.422804750107374</v>
+        <v>36.15804972548949</v>
       </c>
       <c r="G21" t="n">
-        <v>30.73</v>
+        <v>243.2162162162162</v>
       </c>
       <c r="H21" t="n">
-        <v>28.62</v>
+        <v>218.4054054054054</v>
       </c>
       <c r="I21" t="n">
-        <v>37.84</v>
+        <v>281.8648648648648</v>
       </c>
       <c r="J21" t="n">
-        <v>37.01</v>
+        <v>373.4722222222222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>meddecel_count_full_otip</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.968</v>
+        <v>315.8095463884938</v>
       </c>
       <c r="C22" t="n">
-        <v>3.006</v>
+        <v>330.1202995456555</v>
       </c>
       <c r="D22" t="n">
-        <v>1.012803234501348</v>
+        <v>0.1829856167778318</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1769745744450315</v>
+        <v>22.34108746755974</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5578120523207487</v>
+        <v>27.9827234374394</v>
       </c>
       <c r="G22" t="n">
-        <v>2.72</v>
+        <v>290.7105263157895</v>
       </c>
       <c r="H22" t="n">
-        <v>2.31</v>
+        <v>267.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.16</v>
+        <v>350.5555555555555</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>373.8181818181818</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hi_count_full_otip</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>215.956</v>
+        <v>304.9615457562826</v>
       </c>
       <c r="C23" t="n">
-        <v>213.2806666666667</v>
+        <v>308.5424472629117</v>
       </c>
       <c r="D23" t="n">
-        <v>1.012543721731302</v>
+        <v>0.1762506340247875</v>
       </c>
       <c r="E23" t="n">
-        <v>12.77614300170439</v>
+        <v>16.16952708317574</v>
       </c>
       <c r="F23" t="n">
-        <v>33.82233021174592</v>
+        <v>43.62314153208373</v>
       </c>
       <c r="G23" t="n">
-        <v>199</v>
+        <v>279.8648648648648</v>
       </c>
       <c r="H23" t="n">
-        <v>173.28</v>
+        <v>250.1621621621622</v>
       </c>
       <c r="I23" t="n">
-        <v>230.49</v>
+        <v>324.1621621621622</v>
       </c>
       <c r="J23" t="n">
-        <v>310.34</v>
+        <v>437.4444444444445</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>medaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>272.42</v>
+        <v>441.4351351351351</v>
       </c>
       <c r="C24" t="n">
-        <v>270.5313333333334</v>
+        <v>451.7737973875125</v>
       </c>
       <c r="D24" t="n">
-        <v>1.006981323173902</v>
+        <v>0.1248931201873454</v>
       </c>
       <c r="E24" t="n">
-        <v>15.77081640245678</v>
+        <v>20.47642321843283</v>
       </c>
       <c r="F24" t="n">
-        <v>43.4149567490722</v>
+        <v>31.76771400089741</v>
       </c>
       <c r="G24" t="n">
-        <v>250.81</v>
+        <v>423.1351351351352</v>
       </c>
       <c r="H24" t="n">
-        <v>216.29</v>
+        <v>385.0857142857143</v>
       </c>
       <c r="I24" t="n">
-        <v>289.92</v>
+        <v>474</v>
       </c>
       <c r="J24" t="n">
-        <v>395.98</v>
+        <v>494.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>sprint_distance_full_otip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.664</v>
+        <v>755.829619092777</v>
       </c>
       <c r="C25" t="n">
-        <v>150.128</v>
+        <v>772.7644975038164</v>
       </c>
       <c r="D25" t="n">
-        <v>1.003570286688692</v>
+        <v>0.07499676001887148</v>
       </c>
       <c r="E25" t="n">
-        <v>3.530655746458431</v>
+        <v>41.01112008095969</v>
       </c>
       <c r="F25" t="n">
-        <v>5.529323389245481</v>
+        <v>132.2968363426853</v>
       </c>
       <c r="G25" t="n">
-        <v>145.24</v>
+        <v>698.6756756756756</v>
       </c>
       <c r="H25" t="n">
-        <v>143.51</v>
+        <v>597.5526315789474</v>
       </c>
       <c r="I25" t="n">
-        <v>154.26</v>
+        <v>812.7297297297297</v>
       </c>
       <c r="J25" t="n">
-        <v>165.76</v>
+        <v>1165.694444444444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>sprint_count_full_otip</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.134</v>
+        <v>39.68480322427691</v>
       </c>
       <c r="C26" t="n">
-        <v>4.12</v>
+        <v>40.57962779433367</v>
       </c>
       <c r="D26" t="n">
-        <v>1.003398058252427</v>
+        <v>0.06425661875825864</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4368981574692206</v>
+        <v>2.020522280728649</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4508404849357951</v>
+        <v>7.595268047957474</v>
       </c>
       <c r="G26" t="n">
-        <v>3.74</v>
+        <v>36.64864864864865</v>
       </c>
       <c r="H26" t="n">
-        <v>3.53</v>
+        <v>31.75675675675676</v>
       </c>
       <c r="I26" t="n">
-        <v>4.81</v>
+        <v>42.2972972972973</v>
       </c>
       <c r="J26" t="n">
-        <v>5.23</v>
+        <v>63.97222222222222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>running_distance_full_otip</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22.798</v>
+        <v>7319.500537379485</v>
       </c>
       <c r="C27" t="n">
-        <v>22.85733333333333</v>
+        <v>7536.131729121264</v>
       </c>
       <c r="D27" t="n">
-        <v>1.002602567476679</v>
+        <v>0.03247859243778915</v>
       </c>
       <c r="E27" t="n">
-        <v>1.572154572553221</v>
+        <v>269.5763732664105</v>
       </c>
       <c r="F27" t="n">
-        <v>3.228580994507531</v>
+        <v>866.6375494370427</v>
       </c>
       <c r="G27" t="n">
-        <v>20.75</v>
+        <v>6919.815789473684</v>
       </c>
       <c r="H27" t="n">
-        <v>19.01</v>
+        <v>6206.216216216216</v>
       </c>
       <c r="I27" t="n">
-        <v>24.73</v>
+        <v>7561.432432432433</v>
       </c>
       <c r="J27" t="n">
-        <v>32.14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>hsr_count_full_otip</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="C28" t="n">
-        <v>19.85466666666667</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.001243906538914</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.396441907133984</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.681869994363386</v>
-      </c>
-      <c r="G28" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="H28" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="J28" t="n">
-        <v>27.44</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>total_metersperminute_full_tip</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>139.246</v>
-      </c>
-      <c r="C29" t="n">
-        <v>139.2793333333333</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.000239384494587</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4.204649807058849</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.653586432053975</v>
-      </c>
-      <c r="G29" t="n">
-        <v>133.63</v>
-      </c>
-      <c r="H29" t="n">
-        <v>132.27</v>
-      </c>
-      <c r="I29" t="n">
-        <v>144.91</v>
-      </c>
-      <c r="J29" t="n">
-        <v>143.21</v>
+        <v>9735.833333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -494,7 +493,7 @@
         <v>40.18806295821776</v>
       </c>
       <c r="D2" t="n">
-        <v>1.003763681184198</v>
+        <v>7.19</v>
       </c>
       <c r="E2" t="n">
         <v>1.804049587967636</v>
@@ -518,205 +517,205 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>sprint_distance_full_tip</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37912.29730519994</v>
+        <v>835.3134660976766</v>
       </c>
       <c r="C3" t="n">
-        <v>36368.98142873966</v>
+        <v>788.8824798265357</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9105637003018707</v>
+        <v>5.89</v>
       </c>
       <c r="E3" t="n">
-        <v>2066.412088921724</v>
+        <v>51.89725678631734</v>
       </c>
       <c r="F3" t="n">
-        <v>2328.777700280471</v>
+        <v>76.13923929296327</v>
       </c>
       <c r="G3" t="n">
-        <v>34637.57894736842</v>
+        <v>755.6052631578947</v>
       </c>
       <c r="H3" t="n">
-        <v>32626.35294117647</v>
+        <v>657.6111111111111</v>
       </c>
       <c r="I3" t="n">
-        <v>39666.86486486487</v>
+        <v>896.8333333333334</v>
       </c>
       <c r="J3" t="n">
-        <v>40923.35135135135</v>
+        <v>907.921052631579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>total_distance_full_otip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.8151019440493</v>
+        <v>37976.47255413308</v>
       </c>
       <c r="C4" t="n">
-        <v>265.5865184592739</v>
+        <v>40250.32098466204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8971921770437969</v>
+        <v>-5.65</v>
       </c>
       <c r="E4" t="n">
-        <v>19.22662352853307</v>
+        <v>1218.967684573305</v>
       </c>
       <c r="F4" t="n">
-        <v>19.54720228188021</v>
+        <v>2968.429064875285</v>
       </c>
       <c r="G4" t="n">
-        <v>248.2105263157895</v>
+        <v>36469.05263157895</v>
       </c>
       <c r="H4" t="n">
-        <v>235.7647058823529</v>
+        <v>33863.13513513513</v>
       </c>
       <c r="I4" t="n">
-        <v>298.2432432432432</v>
+        <v>39737.52777777778</v>
       </c>
       <c r="J4" t="n">
-        <v>306.8648648648648</v>
+        <v>44247.27777777778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>highaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.41780464675201</v>
+        <v>23.06278647068121</v>
       </c>
       <c r="C5" t="n">
-        <v>21.84378565892498</v>
+        <v>21.87721370721371</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8476911988722098</v>
+        <v>5.42</v>
       </c>
       <c r="E5" t="n">
-        <v>1.766957316097681</v>
+        <v>2.246411429220373</v>
       </c>
       <c r="F5" t="n">
-        <v>1.142454331424871</v>
+        <v>2.629106640832466</v>
       </c>
       <c r="G5" t="n">
-        <v>20.2972972972973</v>
+        <v>19.81578947368421</v>
       </c>
       <c r="H5" t="n">
-        <v>20.23529411764706</v>
+        <v>18.32432432432432</v>
       </c>
       <c r="I5" t="n">
-        <v>25.08333333333333</v>
+        <v>25.69444444444444</v>
       </c>
       <c r="J5" t="n">
-        <v>24</v>
+        <v>27.89189189189189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>meddecel_count_full_tip</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>835.3134660976766</v>
+        <v>278.8151019440493</v>
       </c>
       <c r="C6" t="n">
-        <v>788.8824798265357</v>
+        <v>265.5865184592739</v>
       </c>
       <c r="D6" t="n">
-        <v>0.819682072744912</v>
+        <v>4.98</v>
       </c>
       <c r="E6" t="n">
-        <v>51.89725678631734</v>
+        <v>19.22662352853307</v>
       </c>
       <c r="F6" t="n">
-        <v>76.13923929296327</v>
+        <v>19.54720228188021</v>
       </c>
       <c r="G6" t="n">
-        <v>755.6052631578947</v>
+        <v>248.2105263157895</v>
       </c>
       <c r="H6" t="n">
-        <v>657.6111111111111</v>
+        <v>235.7647058823529</v>
       </c>
       <c r="I6" t="n">
-        <v>896.8333333333334</v>
+        <v>298.2432432432432</v>
       </c>
       <c r="J6" t="n">
-        <v>907.921052631579</v>
+        <v>306.8648648648648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>meddecel_count_full_otip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392.7206495969654</v>
+        <v>315.8095463884938</v>
       </c>
       <c r="C7" t="n">
-        <v>378.1705047880899</v>
+        <v>330.1202995456557</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8183610641978377</v>
+        <v>-4.34</v>
       </c>
       <c r="E7" t="n">
-        <v>30.18429608135872</v>
+        <v>22.34108746755974</v>
       </c>
       <c r="F7" t="n">
-        <v>24.29285216229298</v>
+        <v>27.9827234374394</v>
       </c>
       <c r="G7" t="n">
-        <v>345.3684210526316</v>
+        <v>290.7105263157895</v>
       </c>
       <c r="H7" t="n">
-        <v>341.0882352941176</v>
+        <v>267.6</v>
       </c>
       <c r="I7" t="n">
-        <v>421.6756756756757</v>
+        <v>350.5555555555555</v>
       </c>
       <c r="J7" t="n">
-        <v>426.7837837837838</v>
+        <v>373.8181818181818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>total_distance_full_tip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6039.2</v>
+        <v>37912.29730519994</v>
       </c>
       <c r="C8" t="n">
-        <v>5823.339042275358</v>
+        <v>36368.98142873967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7946782048852896</v>
+        <v>4.24</v>
       </c>
       <c r="E8" t="n">
-        <v>442.3750533663978</v>
+        <v>2066.412088921724</v>
       </c>
       <c r="F8" t="n">
-        <v>412.9608627670697</v>
+        <v>2328.777700280471</v>
       </c>
       <c r="G8" t="n">
-        <v>5611.783783783784</v>
+        <v>34637.57894736842</v>
       </c>
       <c r="H8" t="n">
-        <v>5104.131578947368</v>
+        <v>32626.35294117647</v>
       </c>
       <c r="I8" t="n">
-        <v>6685.394736842105</v>
+        <v>39666.86486486487</v>
       </c>
       <c r="J8" t="n">
-        <v>6560.72972972973</v>
+        <v>40923.35135135135</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +731,7 @@
         <v>40.33372418898735</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6760621245124644</v>
+        <v>4.22</v>
       </c>
       <c r="E9" t="n">
         <v>2.570313890578731</v>
@@ -756,613 +755,613 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>medaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3187.744705231547</v>
+        <v>392.7206495969654</v>
       </c>
       <c r="C10" t="n">
-        <v>3090.024047231663</v>
+        <v>378.1705047880899</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6750169795924991</v>
+        <v>3.85</v>
       </c>
       <c r="E10" t="n">
-        <v>215.7537026835957</v>
+        <v>30.18429608135872</v>
       </c>
       <c r="F10" t="n">
-        <v>241.9822915721011</v>
+        <v>24.29285216229298</v>
       </c>
       <c r="G10" t="n">
-        <v>2908.28947368421</v>
+        <v>345.3684210526316</v>
       </c>
       <c r="H10" t="n">
-        <v>2756.631578947368</v>
+        <v>341.0882352941176</v>
       </c>
       <c r="I10" t="n">
-        <v>3415.578947368421</v>
+        <v>421.6756756756757</v>
       </c>
       <c r="J10" t="n">
-        <v>3483.297297297298</v>
+        <v>426.7837837837838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>running_distance_full_tip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.06278647068121</v>
+        <v>6039.2</v>
       </c>
       <c r="C11" t="n">
-        <v>21.87721370721371</v>
+        <v>5823.339042275358</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6600039569576901</v>
+        <v>3.71</v>
       </c>
       <c r="E11" t="n">
-        <v>2.246411429220373</v>
+        <v>442.3750533663978</v>
       </c>
       <c r="F11" t="n">
-        <v>2.629106640832466</v>
+        <v>412.9608627670697</v>
       </c>
       <c r="G11" t="n">
-        <v>19.81578947368421</v>
+        <v>5611.783783783784</v>
       </c>
       <c r="H11" t="n">
-        <v>18.32432432432432</v>
+        <v>5104.131578947368</v>
       </c>
       <c r="I11" t="n">
-        <v>25.69444444444444</v>
+        <v>6685.394736842105</v>
       </c>
       <c r="J11" t="n">
-        <v>27.89189189189189</v>
+        <v>6560.72972972973</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>hi_distance_full_tip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>265.7587719298245</v>
+        <v>3187.744705231547</v>
       </c>
       <c r="C12" t="n">
-        <v>257.9934589215084</v>
+        <v>3090.024047231663</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6585827410165572</v>
+        <v>3.16</v>
       </c>
       <c r="E12" t="n">
-        <v>20.0632245474992</v>
+        <v>215.7537026835957</v>
       </c>
       <c r="F12" t="n">
-        <v>19.25306162275538</v>
+        <v>241.9822915721011</v>
       </c>
       <c r="G12" t="n">
-        <v>238.8947368421053</v>
+        <v>2908.28947368421</v>
       </c>
       <c r="H12" t="n">
-        <v>227.7058823529412</v>
+        <v>2756.631578947368</v>
       </c>
       <c r="I12" t="n">
-        <v>286.8157894736842</v>
+        <v>3415.578947368421</v>
       </c>
       <c r="J12" t="n">
-        <v>292.4864864864865</v>
+        <v>3483.297297297298</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>hi_count_full_tip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>223.7247194562984</v>
+        <v>265.7587719298245</v>
       </c>
       <c r="C13" t="n">
-        <v>217.6597347325211</v>
+        <v>257.9934589215085</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6495191120593956</v>
+        <v>3.01</v>
       </c>
       <c r="E13" t="n">
-        <v>17.55049506098603</v>
+        <v>20.0632245474992</v>
       </c>
       <c r="F13" t="n">
-        <v>15.53115578420854</v>
+        <v>19.25306162275538</v>
       </c>
       <c r="G13" t="n">
-        <v>200.578947368421</v>
+        <v>238.8947368421053</v>
       </c>
       <c r="H13" t="n">
-        <v>192.7058823529412</v>
+        <v>227.7058823529412</v>
       </c>
       <c r="I13" t="n">
-        <v>241.7368421052632</v>
+        <v>286.8157894736842</v>
       </c>
       <c r="J13" t="n">
-        <v>245.4594594594595</v>
+        <v>292.4864864864865</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_full_otip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1931.688721510985</v>
+        <v>7319.500537379485</v>
       </c>
       <c r="C14" t="n">
-        <v>1926.662618168214</v>
+        <v>7536.131729121264</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5919116887845703</v>
+        <v>-2.87</v>
       </c>
       <c r="E14" t="n">
-        <v>124.2866861270833</v>
+        <v>269.5763732664105</v>
       </c>
       <c r="F14" t="n">
-        <v>47.7370640042684</v>
+        <v>866.6375494370427</v>
       </c>
       <c r="G14" t="n">
-        <v>1802.196111111111</v>
+        <v>6919.815789473684</v>
       </c>
       <c r="H14" t="n">
-        <v>1859.296</v>
+        <v>6206.216216216216</v>
       </c>
       <c r="I14" t="n">
-        <v>2112.557894736842</v>
+        <v>7561.432432432433</v>
       </c>
       <c r="J14" t="n">
-        <v>2017.006756756757</v>
+        <v>9735.833333333334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2352.431239133871</v>
+        <v>223.7247194562984</v>
       </c>
       <c r="C15" t="n">
-        <v>2301.141567405127</v>
+        <v>217.6597347325211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.58724453901471</v>
+        <v>2.79</v>
       </c>
       <c r="E15" t="n">
-        <v>180.0706048595034</v>
+        <v>17.55049506098603</v>
       </c>
       <c r="F15" t="n">
-        <v>174.9257849494258</v>
+        <v>15.53115578420854</v>
       </c>
       <c r="G15" t="n">
-        <v>2152.684210526316</v>
+        <v>200.578947368421</v>
       </c>
       <c r="H15" t="n">
-        <v>2028.736842105263</v>
+        <v>192.7058823529412</v>
       </c>
       <c r="I15" t="n">
-        <v>2576.342105263158</v>
+        <v>241.7368421052632</v>
       </c>
       <c r="J15" t="n">
-        <v>2595.108108108108</v>
+        <v>245.4594594594595</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>highaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2052.954703255888</v>
+        <v>22.41780464675201</v>
       </c>
       <c r="C16" t="n">
-        <v>2054.780069440092</v>
+        <v>21.84378565892498</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5270661558101092</v>
+        <v>2.63</v>
       </c>
       <c r="E16" t="n">
-        <v>132.5511653665204</v>
+        <v>1.766957316097681</v>
       </c>
       <c r="F16" t="n">
-        <v>82.6271374705141</v>
+        <v>1.142454331424871</v>
       </c>
       <c r="G16" t="n">
-        <v>1855.891944444445</v>
+        <v>20.2972972972973</v>
       </c>
       <c r="H16" t="n">
-        <v>1919.415405405405</v>
+        <v>20.23529411764706</v>
       </c>
       <c r="I16" t="n">
-        <v>2207.652162162162</v>
+        <v>25.08333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>2272.552222222223</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>medaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37976.47255413308</v>
+        <v>441.4351351351351</v>
       </c>
       <c r="C17" t="n">
-        <v>40250.32098466204</v>
+        <v>451.7737973875126</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4130981600348653</v>
+        <v>-2.29</v>
       </c>
       <c r="E17" t="n">
-        <v>1218.967684573305</v>
+        <v>20.47642321843283</v>
       </c>
       <c r="F17" t="n">
-        <v>2968.429064875285</v>
+        <v>31.76771400089741</v>
       </c>
       <c r="G17" t="n">
-        <v>36469.05263157895</v>
+        <v>423.1351351351352</v>
       </c>
       <c r="H17" t="n">
-        <v>33863.13513513513</v>
+        <v>385.0857142857143</v>
       </c>
       <c r="I17" t="n">
-        <v>39737.52777777778</v>
+        <v>474</v>
       </c>
       <c r="J17" t="n">
-        <v>44247.27777777778</v>
+        <v>494.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_distance_full_tip</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2889.921906116643</v>
+        <v>2352.431239133871</v>
       </c>
       <c r="C18" t="n">
-        <v>2878.475614489081</v>
+        <v>2301.141567405127</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2849995316141286</v>
+        <v>2.23</v>
       </c>
       <c r="E18" t="n">
-        <v>151.9073601325664</v>
+        <v>180.0706048595034</v>
       </c>
       <c r="F18" t="n">
-        <v>455.2798591713864</v>
+        <v>174.9257849494258</v>
       </c>
       <c r="G18" t="n">
-        <v>2683.810810810811</v>
+        <v>2152.684210526316</v>
       </c>
       <c r="H18" t="n">
-        <v>2372.567567567567</v>
+        <v>2028.736842105263</v>
       </c>
       <c r="I18" t="n">
-        <v>3112.351351351351</v>
+        <v>2576.342105263158</v>
       </c>
       <c r="J18" t="n">
-        <v>4224.083333333333</v>
+        <v>2595.108108108108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>sprint_count_full_otip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3645.75152520942</v>
+        <v>39.68480322427691</v>
       </c>
       <c r="C19" t="n">
-        <v>3651.240111992898</v>
+        <v>40.57962779433367</v>
       </c>
       <c r="D19" t="n">
-        <v>0.238701312004126</v>
+        <v>-2.21</v>
       </c>
       <c r="E19" t="n">
-        <v>192.1082580171873</v>
+        <v>2.020522280728649</v>
       </c>
       <c r="F19" t="n">
-        <v>585.3472947855797</v>
+        <v>7.595268047957474</v>
       </c>
       <c r="G19" t="n">
-        <v>3382.486486486487</v>
+        <v>36.64864864864865</v>
       </c>
       <c r="H19" t="n">
-        <v>2993.783783783784</v>
+        <v>31.75675675675676</v>
       </c>
       <c r="I19" t="n">
-        <v>3925.081081081081</v>
+        <v>42.2972972972973</v>
       </c>
       <c r="J19" t="n">
-        <v>5389.777777777777</v>
+        <v>63.97222222222222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>sprint_distance_full_otip</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.24603287498024</v>
+        <v>755.829619092777</v>
       </c>
       <c r="C20" t="n">
-        <v>55.60428005545653</v>
+        <v>772.7644975038164</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2301823971017243</v>
+        <v>-2.19</v>
       </c>
       <c r="E20" t="n">
-        <v>4.373797607140837</v>
+        <v>41.01112008095969</v>
       </c>
       <c r="F20" t="n">
-        <v>6.117368018980944</v>
+        <v>132.2968363426853</v>
       </c>
       <c r="G20" t="n">
-        <v>50.7027027027027</v>
+        <v>698.6756756756756</v>
       </c>
       <c r="H20" t="n">
-        <v>47.10810810810811</v>
+        <v>597.5526315789474</v>
       </c>
       <c r="I20" t="n">
-        <v>60.30555555555556</v>
+        <v>812.7297297297297</v>
       </c>
       <c r="J20" t="n">
-        <v>71.22222222222223</v>
+        <v>1165.694444444444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>hi_count_full_otip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>265.2767425320056</v>
+        <v>304.9615457562826</v>
       </c>
       <c r="C21" t="n">
-        <v>267.9628194685779</v>
+        <v>308.5424472629117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1992621322240255</v>
+        <v>-1.16</v>
       </c>
       <c r="E21" t="n">
-        <v>14.19774683472161</v>
+        <v>16.16952708317574</v>
       </c>
       <c r="F21" t="n">
-        <v>36.15804972548949</v>
+        <v>43.62314153208373</v>
       </c>
       <c r="G21" t="n">
-        <v>243.2162162162162</v>
+        <v>279.8648648648648</v>
       </c>
       <c r="H21" t="n">
-        <v>218.4054054054054</v>
+        <v>250.1621621621622</v>
       </c>
       <c r="I21" t="n">
-        <v>281.8648648648648</v>
+        <v>324.1621621621622</v>
       </c>
       <c r="J21" t="n">
-        <v>373.4722222222222</v>
+        <v>437.4444444444445</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>hsr_count_full_otip</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>315.8095463884938</v>
+        <v>265.2767425320056</v>
       </c>
       <c r="C22" t="n">
-        <v>330.1202995456555</v>
+        <v>267.962819468578</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1829856167778318</v>
+        <v>-1</v>
       </c>
       <c r="E22" t="n">
-        <v>22.34108746755974</v>
+        <v>14.19774683472161</v>
       </c>
       <c r="F22" t="n">
-        <v>27.9827234374394</v>
+        <v>36.15804972548949</v>
       </c>
       <c r="G22" t="n">
-        <v>290.7105263157895</v>
+        <v>243.2162162162162</v>
       </c>
       <c r="H22" t="n">
-        <v>267.6</v>
+        <v>218.4054054054054</v>
       </c>
       <c r="I22" t="n">
-        <v>350.5555555555555</v>
+        <v>281.8648648648648</v>
       </c>
       <c r="J22" t="n">
-        <v>373.8181818181818</v>
+        <v>373.4722222222222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>highdecel_count_full_otip</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>304.9615457562826</v>
+        <v>55.24603287498024</v>
       </c>
       <c r="C23" t="n">
-        <v>308.5424472629117</v>
+        <v>55.60428005545653</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1762506340247875</v>
+        <v>-0.64</v>
       </c>
       <c r="E23" t="n">
-        <v>16.16952708317574</v>
+        <v>4.373797607140837</v>
       </c>
       <c r="F23" t="n">
-        <v>43.62314153208373</v>
+        <v>6.117368018980944</v>
       </c>
       <c r="G23" t="n">
-        <v>279.8648648648648</v>
+        <v>50.7027027027027</v>
       </c>
       <c r="H23" t="n">
-        <v>250.1621621621622</v>
+        <v>47.10810810810811</v>
       </c>
       <c r="I23" t="n">
-        <v>324.1621621621622</v>
+        <v>60.30555555555556</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4444444444445</v>
+        <v>71.22222222222223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>hsr_distance_full_otip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>441.4351351351351</v>
+        <v>2889.921906116643</v>
       </c>
       <c r="C24" t="n">
-        <v>451.7737973875125</v>
+        <v>2878.475614489082</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1248931201873454</v>
+        <v>0.4</v>
       </c>
       <c r="E24" t="n">
-        <v>20.47642321843283</v>
+        <v>151.9073601325664</v>
       </c>
       <c r="F24" t="n">
-        <v>31.76771400089741</v>
+        <v>455.2798591713864</v>
       </c>
       <c r="G24" t="n">
-        <v>423.1351351351352</v>
+        <v>2683.810810810811</v>
       </c>
       <c r="H24" t="n">
-        <v>385.0857142857143</v>
+        <v>2372.567567567567</v>
       </c>
       <c r="I24" t="n">
-        <v>474</v>
+        <v>3112.351351351351</v>
       </c>
       <c r="J24" t="n">
-        <v>494.75</v>
+        <v>4224.083333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>total_metersperminute_full_tip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>755.829619092777</v>
+        <v>1931.688721510985</v>
       </c>
       <c r="C25" t="n">
-        <v>772.7644975038164</v>
+        <v>1926.662618168214</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07499676001887148</v>
+        <v>0.26</v>
       </c>
       <c r="E25" t="n">
-        <v>41.01112008095969</v>
+        <v>124.2866861270833</v>
       </c>
       <c r="F25" t="n">
-        <v>132.2968363426853</v>
+        <v>47.7370640042684</v>
       </c>
       <c r="G25" t="n">
-        <v>698.6756756756756</v>
+        <v>1802.196111111111</v>
       </c>
       <c r="H25" t="n">
-        <v>597.5526315789474</v>
+        <v>1859.296</v>
       </c>
       <c r="I25" t="n">
-        <v>812.7297297297297</v>
+        <v>2112.557894736842</v>
       </c>
       <c r="J25" t="n">
-        <v>1165.694444444444</v>
+        <v>2017.006756756757</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_full_otip</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39.68480322427691</v>
+        <v>3645.75152520942</v>
       </c>
       <c r="C26" t="n">
-        <v>40.57962779433367</v>
+        <v>3651.240111992898</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06425661875825864</v>
+        <v>-0.15</v>
       </c>
       <c r="E26" t="n">
-        <v>2.020522280728649</v>
+        <v>192.1082580171873</v>
       </c>
       <c r="F26" t="n">
-        <v>7.595268047957474</v>
+        <v>585.3472947855797</v>
       </c>
       <c r="G26" t="n">
-        <v>36.64864864864865</v>
+        <v>3382.486486486487</v>
       </c>
       <c r="H26" t="n">
-        <v>31.75675675675676</v>
+        <v>2993.783783783784</v>
       </c>
       <c r="I26" t="n">
-        <v>42.2972972972973</v>
+        <v>3925.081081081081</v>
       </c>
       <c r="J26" t="n">
-        <v>63.97222222222222</v>
+        <v>5389.777777777777</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>total_metersperminute_full_otip</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7319.500537379485</v>
+        <v>2052.954703255888</v>
       </c>
       <c r="C27" t="n">
-        <v>7536.131729121264</v>
+        <v>2054.780069440093</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03247859243778915</v>
+        <v>-0.09</v>
       </c>
       <c r="E27" t="n">
-        <v>269.5763732664105</v>
+        <v>132.5511653665204</v>
       </c>
       <c r="F27" t="n">
-        <v>866.6375494370427</v>
+        <v>82.6271374705141</v>
       </c>
       <c r="G27" t="n">
-        <v>6919.815789473684</v>
+        <v>1855.891944444445</v>
       </c>
       <c r="H27" t="n">
-        <v>6206.216216216216</v>
+        <v>1919.415405405405</v>
       </c>
       <c r="I27" t="n">
-        <v>7561.432432432433</v>
+        <v>2207.652162162162</v>
       </c>
       <c r="J27" t="n">
-        <v>9735.833333333334</v>
+        <v>2272.552222222223</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
@@ -487,99 +487,99 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.07795953848586</v>
+        <v>40.32643280579968</v>
       </c>
       <c r="C2" t="n">
-        <v>40.18806295821776</v>
+        <v>37.81427744046337</v>
       </c>
       <c r="D2" t="n">
-        <v>7.19</v>
+        <v>6.64</v>
       </c>
       <c r="E2" t="n">
-        <v>1.804049587967636</v>
+        <v>1.566944369617723</v>
       </c>
       <c r="F2" t="n">
-        <v>3.418269469976772</v>
+        <v>3.277827349723662</v>
       </c>
       <c r="G2" t="n">
-        <v>40.02631578947368</v>
+        <v>37.69567533837247</v>
       </c>
       <c r="H2" t="n">
-        <v>35.70588235294117</v>
+        <v>33.918905803945</v>
       </c>
       <c r="I2" t="n">
-        <v>44.67567567567568</v>
+        <v>41.65753511656836</v>
       </c>
       <c r="J2" t="n">
-        <v>47.56756756756756</v>
+        <v>44.94408914964191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>total_distance_full_otip</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>835.3134660976766</v>
+        <v>35557.73874765011</v>
       </c>
       <c r="C3" t="n">
-        <v>788.8824798265357</v>
+        <v>37875.22498564087</v>
       </c>
       <c r="D3" t="n">
-        <v>5.89</v>
+        <v>-6.12</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89725678631734</v>
+        <v>1232.388864977056</v>
       </c>
       <c r="F3" t="n">
-        <v>76.13923929296327</v>
+        <v>2824.068090997378</v>
       </c>
       <c r="G3" t="n">
-        <v>755.6052631578947</v>
+        <v>34037.08639854103</v>
       </c>
       <c r="H3" t="n">
-        <v>657.6111111111111</v>
+        <v>31960.22600064877</v>
       </c>
       <c r="I3" t="n">
-        <v>896.8333333333334</v>
+        <v>37278.73176481328</v>
       </c>
       <c r="J3" t="n">
-        <v>907.921052631579</v>
+        <v>41842.81071672353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>sprint_distance_full_tip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37976.47255413308</v>
+        <v>781.8154777733826</v>
       </c>
       <c r="C4" t="n">
-        <v>40250.32098466204</v>
+        <v>742.2055356201979</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.65</v>
+        <v>5.34</v>
       </c>
       <c r="E4" t="n">
-        <v>1218.967684573305</v>
+        <v>46.33414738302128</v>
       </c>
       <c r="F4" t="n">
-        <v>2968.429064875285</v>
+        <v>71.70087241178432</v>
       </c>
       <c r="G4" t="n">
-        <v>36469.05263157895</v>
+        <v>713.0034047802379</v>
       </c>
       <c r="H4" t="n">
-        <v>33863.13513513513</v>
+        <v>621.2318161859457</v>
       </c>
       <c r="I4" t="n">
-        <v>39737.52777777778</v>
+        <v>840.5826305662382</v>
       </c>
       <c r="J4" t="n">
-        <v>44247.27777777778</v>
+        <v>856.2483521944293</v>
       </c>
     </row>
     <row r="5">
@@ -589,99 +589,99 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.06278647068121</v>
+        <v>21.5808006642409</v>
       </c>
       <c r="C5" t="n">
-        <v>21.87721370721371</v>
+        <v>20.58435855497999</v>
       </c>
       <c r="D5" t="n">
-        <v>5.42</v>
+        <v>4.84</v>
       </c>
       <c r="E5" t="n">
-        <v>2.246411429220373</v>
+        <v>2.075893813909885</v>
       </c>
       <c r="F5" t="n">
-        <v>2.629106640832466</v>
+        <v>2.484906787937065</v>
       </c>
       <c r="G5" t="n">
-        <v>19.81578947368421</v>
+        <v>18.66445279530906</v>
       </c>
       <c r="H5" t="n">
-        <v>18.32432432432432</v>
+        <v>17.21672867397698</v>
       </c>
       <c r="I5" t="n">
-        <v>25.69444444444444</v>
+        <v>24.12555135755219</v>
       </c>
       <c r="J5" t="n">
-        <v>27.89189189189189</v>
+        <v>26.38165588884013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>meddecel_count_full_otip</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278.8151019440493</v>
+        <v>295.7264310572242</v>
       </c>
       <c r="C6" t="n">
-        <v>265.5865184592739</v>
+        <v>310.6382529620406</v>
       </c>
       <c r="D6" t="n">
-        <v>4.98</v>
+        <v>-4.8</v>
       </c>
       <c r="E6" t="n">
-        <v>19.22662352853307</v>
+        <v>21.48979728892436</v>
       </c>
       <c r="F6" t="n">
-        <v>19.54720228188021</v>
+        <v>26.68113240161935</v>
       </c>
       <c r="G6" t="n">
-        <v>248.2105263157895</v>
+        <v>271.3609392051098</v>
       </c>
       <c r="H6" t="n">
-        <v>235.7647058823529</v>
+        <v>250.370317805314</v>
       </c>
       <c r="I6" t="n">
-        <v>298.2432432432432</v>
+        <v>328.8671087604378</v>
       </c>
       <c r="J6" t="n">
-        <v>306.8648648648648</v>
+        <v>352.7150321250502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>meddecel_count_full_tip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.8095463884938</v>
+        <v>260.9359912541216</v>
       </c>
       <c r="C7" t="n">
-        <v>330.1202995456557</v>
+        <v>249.8672855776814</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.34</v>
+        <v>4.43</v>
       </c>
       <c r="E7" t="n">
-        <v>22.34108746755974</v>
+        <v>16.95666447451088</v>
       </c>
       <c r="F7" t="n">
-        <v>27.9827234374394</v>
+        <v>18.5851248816636</v>
       </c>
       <c r="G7" t="n">
-        <v>290.7105263157895</v>
+        <v>233.8347715843163</v>
       </c>
       <c r="H7" t="n">
-        <v>267.6</v>
+        <v>223.6140481905484</v>
       </c>
       <c r="I7" t="n">
-        <v>350.5555555555555</v>
+        <v>278.0250160352341</v>
       </c>
       <c r="J7" t="n">
-        <v>373.8181818181818</v>
+        <v>289.7676027772649</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37912.29730519994</v>
+        <v>35483.45315552852</v>
       </c>
       <c r="C8" t="n">
-        <v>36368.98142873967</v>
+        <v>34213.03794152191</v>
       </c>
       <c r="D8" t="n">
-        <v>4.24</v>
+        <v>3.71</v>
       </c>
       <c r="E8" t="n">
-        <v>2066.412088921724</v>
+        <v>1779.777983213065</v>
       </c>
       <c r="F8" t="n">
-        <v>2328.777700280471</v>
+        <v>2197.813938713118</v>
       </c>
       <c r="G8" t="n">
-        <v>34637.57894736842</v>
+        <v>32647.87026909309</v>
       </c>
       <c r="H8" t="n">
-        <v>32626.35294117647</v>
+        <v>30965.54675942479</v>
       </c>
       <c r="I8" t="n">
-        <v>39666.86486486487</v>
+        <v>36984.78942497371</v>
       </c>
       <c r="J8" t="n">
-        <v>40923.35135135135</v>
+        <v>38666.44617415352</v>
       </c>
     </row>
     <row r="9">
@@ -725,405 +725,405 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.03405247352616</v>
+        <v>39.34931314487949</v>
       </c>
       <c r="C9" t="n">
-        <v>40.33372418898735</v>
+        <v>37.94439031012171</v>
       </c>
       <c r="D9" t="n">
-        <v>4.22</v>
+        <v>3.7</v>
       </c>
       <c r="E9" t="n">
-        <v>2.570313890578731</v>
+        <v>2.27103105593123</v>
       </c>
       <c r="F9" t="n">
-        <v>3.89549543514882</v>
+        <v>3.672266351188446</v>
       </c>
       <c r="G9" t="n">
-        <v>38.31578947368421</v>
+        <v>36.12928511257346</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>32.77406582441426</v>
       </c>
       <c r="I9" t="n">
-        <v>45.07894736842105</v>
+        <v>42.10090083547875</v>
       </c>
       <c r="J9" t="n">
-        <v>47.02702702702702</v>
+        <v>44.43655945661627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>running_distance_full_otip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>392.7206495969654</v>
+        <v>6853.733652790443</v>
       </c>
       <c r="C10" t="n">
-        <v>378.1705047880899</v>
+        <v>7090.395590995666</v>
       </c>
       <c r="D10" t="n">
-        <v>3.85</v>
+        <v>-3.34</v>
       </c>
       <c r="E10" t="n">
-        <v>30.18429608135872</v>
+        <v>261.7312196234597</v>
       </c>
       <c r="F10" t="n">
-        <v>24.29285216229298</v>
+        <v>824.1695915250681</v>
       </c>
       <c r="G10" t="n">
-        <v>345.3684210526316</v>
+        <v>6461.814865793849</v>
       </c>
       <c r="H10" t="n">
-        <v>341.0882352941176</v>
+        <v>5857.257841365194</v>
       </c>
       <c r="I10" t="n">
-        <v>421.6756756756757</v>
+        <v>7116.883714345494</v>
       </c>
       <c r="J10" t="n">
-        <v>426.7837837837838</v>
+        <v>9202.918048062398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>medaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6039.2</v>
+        <v>367.4935104648872</v>
       </c>
       <c r="C11" t="n">
-        <v>5823.339042275358</v>
+        <v>355.7742733909068</v>
       </c>
       <c r="D11" t="n">
-        <v>3.71</v>
+        <v>3.29</v>
       </c>
       <c r="E11" t="n">
-        <v>442.3750533663978</v>
+        <v>26.73875633393764</v>
       </c>
       <c r="F11" t="n">
-        <v>412.9608627670697</v>
+        <v>23.04717293601096</v>
       </c>
       <c r="G11" t="n">
-        <v>5611.783783783784</v>
+        <v>325.3385808165229</v>
       </c>
       <c r="H11" t="n">
-        <v>5104.131578947368</v>
+        <v>323.6035574796436</v>
       </c>
       <c r="I11" t="n">
-        <v>6685.394736842105</v>
+        <v>393.013095416546</v>
       </c>
       <c r="J11" t="n">
-        <v>6560.72972972973</v>
+        <v>403.1707345705044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>running_distance_full_tip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3187.744705231547</v>
+        <v>5652.00052074328</v>
       </c>
       <c r="C12" t="n">
-        <v>3090.024047231663</v>
+        <v>5477.507365740687</v>
       </c>
       <c r="D12" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="E12" t="n">
-        <v>215.7537026835957</v>
+        <v>398.953218813526</v>
       </c>
       <c r="F12" t="n">
-        <v>241.9822915721011</v>
+        <v>388.379698055164</v>
       </c>
       <c r="G12" t="n">
-        <v>2908.28947368421</v>
+        <v>5243.529566463166</v>
       </c>
       <c r="H12" t="n">
-        <v>2756.631578947368</v>
+        <v>4769.842932808218</v>
       </c>
       <c r="I12" t="n">
-        <v>3415.578947368421</v>
+        <v>6237.721800697452</v>
       </c>
       <c r="J12" t="n">
-        <v>3483.297297297298</v>
+        <v>6193.01590876589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.7587719298245</v>
+        <v>413.3315748917781</v>
       </c>
       <c r="C13" t="n">
-        <v>257.9934589215085</v>
+        <v>425.1069623861311</v>
       </c>
       <c r="D13" t="n">
-        <v>3.01</v>
+        <v>-2.77</v>
       </c>
       <c r="E13" t="n">
-        <v>20.0632245474992</v>
+        <v>19.46897222949351</v>
       </c>
       <c r="F13" t="n">
-        <v>19.25306162275538</v>
+        <v>30.51045719714014</v>
       </c>
       <c r="G13" t="n">
-        <v>238.8947368421053</v>
+        <v>396.2543559713862</v>
       </c>
       <c r="H13" t="n">
-        <v>227.7058823529412</v>
+        <v>360.4221816733501</v>
       </c>
       <c r="I13" t="n">
-        <v>286.8157894736842</v>
+        <v>444.7572931794446</v>
       </c>
       <c r="J13" t="n">
-        <v>292.4864864864865</v>
+        <v>467.8653562805059</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>sprint_distance_full_otip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7319.500537379485</v>
+        <v>707.7137791400927</v>
       </c>
       <c r="C14" t="n">
-        <v>7536.131729121264</v>
+        <v>727.1140904712177</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.87</v>
+        <v>-2.67</v>
       </c>
       <c r="E14" t="n">
-        <v>269.5763732664105</v>
+        <v>37.16671986120333</v>
       </c>
       <c r="F14" t="n">
-        <v>866.6375494370427</v>
+        <v>125.5787783588835</v>
       </c>
       <c r="G14" t="n">
-        <v>6919.815789473684</v>
+        <v>654.4873509197188</v>
       </c>
       <c r="H14" t="n">
-        <v>6206.216216216216</v>
+        <v>557.7131031458366</v>
       </c>
       <c r="I14" t="n">
-        <v>7561.432432432433</v>
+        <v>757.7201179376283</v>
       </c>
       <c r="J14" t="n">
-        <v>9735.833333333334</v>
+        <v>1100.605823962163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_count_full_otip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>223.7247194562984</v>
+        <v>37.16239915648865</v>
       </c>
       <c r="C15" t="n">
-        <v>217.6597347325211</v>
+        <v>38.1755827592341</v>
       </c>
       <c r="D15" t="n">
-        <v>2.79</v>
+        <v>-2.65</v>
       </c>
       <c r="E15" t="n">
-        <v>17.55049506098603</v>
+        <v>1.85777303925926</v>
       </c>
       <c r="F15" t="n">
-        <v>15.53115578420854</v>
+        <v>7.204822822810137</v>
       </c>
       <c r="G15" t="n">
-        <v>200.578947368421</v>
+        <v>34.32881547899326</v>
       </c>
       <c r="H15" t="n">
-        <v>192.7058823529412</v>
+        <v>29.90705738630099</v>
       </c>
       <c r="I15" t="n">
-        <v>241.7368421052632</v>
+        <v>39.44895443994156</v>
       </c>
       <c r="J15" t="n">
-        <v>245.4594594594595</v>
+        <v>60.41563664314325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>hi_distance_full_tip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.41780464675201</v>
+        <v>2983.627093050226</v>
       </c>
       <c r="C16" t="n">
-        <v>21.84378565892498</v>
+        <v>2906.84415604861</v>
       </c>
       <c r="D16" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="E16" t="n">
-        <v>1.766957316097681</v>
+        <v>192.6248345487242</v>
       </c>
       <c r="F16" t="n">
-        <v>1.142454331424871</v>
+        <v>228.6704536234355</v>
       </c>
       <c r="G16" t="n">
-        <v>20.2972972972973</v>
+        <v>2741.886148356625</v>
       </c>
       <c r="H16" t="n">
-        <v>20.23529411764706</v>
+        <v>2574.649203297054</v>
       </c>
       <c r="I16" t="n">
-        <v>25.08333333333333</v>
+        <v>3187.861066187726</v>
       </c>
       <c r="J16" t="n">
-        <v>24</v>
+        <v>3292.476696441771</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>hi_count_full_tip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>441.4351351351351</v>
+        <v>248.7348905139809</v>
       </c>
       <c r="C17" t="n">
-        <v>451.7737973875126</v>
+        <v>242.7086526873697</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.29</v>
+        <v>2.48</v>
       </c>
       <c r="E17" t="n">
-        <v>20.47642321843283</v>
+        <v>17.97719918149894</v>
       </c>
       <c r="F17" t="n">
-        <v>31.76771400089741</v>
+        <v>18.18235700935413</v>
       </c>
       <c r="G17" t="n">
-        <v>423.1351351351352</v>
+        <v>225.1166050882141</v>
       </c>
       <c r="H17" t="n">
-        <v>385.0857142857143</v>
+        <v>216.4225409928567</v>
       </c>
       <c r="I17" t="n">
-        <v>474</v>
+        <v>267.7479426716968</v>
       </c>
       <c r="J17" t="n">
-        <v>494.75</v>
+        <v>276.4090780947945</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2352.431239133871</v>
+        <v>209.3855773691015</v>
       </c>
       <c r="C18" t="n">
-        <v>2301.141567405127</v>
+        <v>204.764262377248</v>
       </c>
       <c r="D18" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="E18" t="n">
-        <v>180.0706048595034</v>
+        <v>15.76290027667297</v>
       </c>
       <c r="F18" t="n">
-        <v>174.9257849494258</v>
+        <v>14.67104467656554</v>
       </c>
       <c r="G18" t="n">
-        <v>2152.684210526316</v>
+        <v>188.9873199756406</v>
       </c>
       <c r="H18" t="n">
-        <v>2028.736842105263</v>
+        <v>183.1214673779982</v>
       </c>
       <c r="I18" t="n">
-        <v>2576.342105263158</v>
+        <v>225.6470418362181</v>
       </c>
       <c r="J18" t="n">
-        <v>2595.108108108108</v>
+        <v>231.9725186381782</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>highaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.68480322427691</v>
+        <v>20.9885927830018</v>
       </c>
       <c r="C19" t="n">
-        <v>40.57962779433367</v>
+        <v>20.55151676233293</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.21</v>
+        <v>2.13</v>
       </c>
       <c r="E19" t="n">
-        <v>2.020522280728649</v>
+        <v>1.644643387792927</v>
       </c>
       <c r="F19" t="n">
-        <v>7.595268047957474</v>
+        <v>1.072954953754047</v>
       </c>
       <c r="G19" t="n">
-        <v>36.64864864864865</v>
+        <v>19.01366400801037</v>
       </c>
       <c r="H19" t="n">
-        <v>31.75675675675676</v>
+        <v>19.16336104346119</v>
       </c>
       <c r="I19" t="n">
-        <v>42.2972972972973</v>
+        <v>23.50821093050978</v>
       </c>
       <c r="J19" t="n">
-        <v>63.97222222222222</v>
+        <v>22.64911874439506</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>hsr_distance_full_tip</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>755.829619092777</v>
+        <v>2201.811615276843</v>
       </c>
       <c r="C20" t="n">
-        <v>772.7644975038164</v>
+        <v>2164.638620428413</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.19</v>
+        <v>1.72</v>
       </c>
       <c r="E20" t="n">
-        <v>41.01112008095969</v>
+        <v>162.1337972889364</v>
       </c>
       <c r="F20" t="n">
-        <v>132.2968363426853</v>
+        <v>165.4497535123431</v>
       </c>
       <c r="G20" t="n">
-        <v>698.6756756756756</v>
+        <v>2028.882743576388</v>
       </c>
       <c r="H20" t="n">
-        <v>597.5526315789474</v>
+        <v>1895.187098614456</v>
       </c>
       <c r="I20" t="n">
-        <v>812.7297297297297</v>
+        <v>2404.758738272372</v>
       </c>
       <c r="J20" t="n">
-        <v>1165.694444444444</v>
+        <v>2453.299623878735</v>
       </c>
     </row>
     <row r="21">
@@ -1133,31 +1133,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>304.9615457562826</v>
+        <v>285.5495749623238</v>
       </c>
       <c r="C21" t="n">
-        <v>308.5424472629117</v>
+        <v>290.2838287275494</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.16</v>
+        <v>-1.63</v>
       </c>
       <c r="E21" t="n">
-        <v>16.16952708317574</v>
+        <v>14.87682812721861</v>
       </c>
       <c r="F21" t="n">
-        <v>43.62314153208373</v>
+        <v>41.51589737945454</v>
       </c>
       <c r="G21" t="n">
-        <v>279.8648648648648</v>
+        <v>262.0781747488301</v>
       </c>
       <c r="H21" t="n">
-        <v>250.1621621621622</v>
+        <v>236.0281904784996</v>
       </c>
       <c r="I21" t="n">
-        <v>324.1621621621622</v>
+        <v>301.9106687576135</v>
       </c>
       <c r="J21" t="n">
-        <v>437.4444444444445</v>
+        <v>413.3904060305224</v>
       </c>
     </row>
     <row r="22">
@@ -1167,31 +1167,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.2767425320056</v>
+        <v>248.3871758058353</v>
       </c>
       <c r="C22" t="n">
-        <v>267.962819468578</v>
+        <v>252.1082459683153</v>
       </c>
       <c r="D22" t="n">
-        <v>-1</v>
+        <v>-1.48</v>
       </c>
       <c r="E22" t="n">
-        <v>14.19774683472161</v>
+        <v>13.07014610713024</v>
       </c>
       <c r="F22" t="n">
-        <v>36.15804972548949</v>
+        <v>34.43216839108684</v>
       </c>
       <c r="G22" t="n">
-        <v>243.2162162162162</v>
+        <v>227.7493592698368</v>
       </c>
       <c r="H22" t="n">
-        <v>218.4054054054054</v>
+        <v>206.092053379901</v>
       </c>
       <c r="I22" t="n">
-        <v>281.8648648648648</v>
+        <v>262.4617143176719</v>
       </c>
       <c r="J22" t="n">
-        <v>373.4722222222222</v>
+        <v>352.9747693873791</v>
       </c>
     </row>
     <row r="23">
@@ -1201,167 +1201,167 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.24603287498024</v>
+        <v>51.72276474536343</v>
       </c>
       <c r="C23" t="n">
-        <v>55.60428005545653</v>
+        <v>52.32048826977314</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.64</v>
+        <v>-1.14</v>
       </c>
       <c r="E23" t="n">
-        <v>4.373797607140837</v>
+        <v>4.036793686977469</v>
       </c>
       <c r="F23" t="n">
-        <v>6.117368018980944</v>
+        <v>5.826276827397506</v>
       </c>
       <c r="G23" t="n">
-        <v>50.7027027027027</v>
+        <v>47.46093844235369</v>
       </c>
       <c r="H23" t="n">
-        <v>47.10810810810811</v>
+        <v>44.40391729390301</v>
       </c>
       <c r="I23" t="n">
-        <v>60.30555555555556</v>
+        <v>56.52843416597797</v>
       </c>
       <c r="J23" t="n">
-        <v>71.22222222222223</v>
+        <v>67.31286071329997</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hi_distance_full_otip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2889.921906116643</v>
+        <v>3413.389484521112</v>
       </c>
       <c r="C24" t="n">
-        <v>2878.475614489082</v>
+        <v>3435.329989578204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4</v>
+        <v>-0.64</v>
       </c>
       <c r="E24" t="n">
-        <v>151.9073601325664</v>
+        <v>173.7964389024005</v>
       </c>
       <c r="F24" t="n">
-        <v>455.2798591713864</v>
+        <v>556.3293553007516</v>
       </c>
       <c r="G24" t="n">
-        <v>2683.810810810811</v>
+        <v>3166.75182288359</v>
       </c>
       <c r="H24" t="n">
-        <v>2372.567567567567</v>
+        <v>2803.614667939856</v>
       </c>
       <c r="I24" t="n">
-        <v>3112.351351351351</v>
+        <v>3656.218461286545</v>
       </c>
       <c r="J24" t="n">
-        <v>4224.083333333333</v>
+        <v>5093.182468857197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>total_metersperminute_full_otip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1931.688721510985</v>
+        <v>1921.369056708694</v>
       </c>
       <c r="C25" t="n">
-        <v>1926.662618168214</v>
+        <v>1933.397142085327</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26</v>
+        <v>-0.62</v>
       </c>
       <c r="E25" t="n">
-        <v>124.2866861270833</v>
+        <v>117.5788256070493</v>
       </c>
       <c r="F25" t="n">
-        <v>47.7370640042684</v>
+        <v>75.84925843295528</v>
       </c>
       <c r="G25" t="n">
-        <v>1802.196111111111</v>
+        <v>1741.475776568035</v>
       </c>
       <c r="H25" t="n">
-        <v>1859.296</v>
+        <v>1812.256080771003</v>
       </c>
       <c r="I25" t="n">
-        <v>2112.557894736842</v>
+        <v>2055.524019744857</v>
       </c>
       <c r="J25" t="n">
-        <v>2017.006756756757</v>
+        <v>2147.247733113258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>total_metersperminute_full_tip</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3645.75152520942</v>
+        <v>1807.588149029572</v>
       </c>
       <c r="C26" t="n">
-        <v>3651.240111992898</v>
+        <v>1812.821493985028</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.15</v>
+        <v>-0.29</v>
       </c>
       <c r="E26" t="n">
-        <v>192.1082580171873</v>
+        <v>110.6389375267606</v>
       </c>
       <c r="F26" t="n">
-        <v>585.3472947855797</v>
+        <v>41.61203321987711</v>
       </c>
       <c r="G26" t="n">
-        <v>3382.486486486487</v>
+        <v>1690.440770990897</v>
       </c>
       <c r="H26" t="n">
-        <v>2993.783783783784</v>
+        <v>1752.370680344522</v>
       </c>
       <c r="I26" t="n">
-        <v>3925.081081081081</v>
+        <v>1971.081921566278</v>
       </c>
       <c r="J26" t="n">
-        <v>5389.777777777777</v>
+        <v>1886.173303597148</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>hsr_distance_full_otip</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2052.954703255888</v>
+        <v>2705.675705381019</v>
       </c>
       <c r="C27" t="n">
-        <v>2054.780069440093</v>
+        <v>2708.215899106986</v>
       </c>
       <c r="D27" t="n">
         <v>-0.09</v>
       </c>
       <c r="E27" t="n">
-        <v>132.5511653665204</v>
+        <v>137.4437812126859</v>
       </c>
       <c r="F27" t="n">
-        <v>82.6271374705141</v>
+        <v>432.8025992886028</v>
       </c>
       <c r="G27" t="n">
-        <v>1855.891944444445</v>
+        <v>2512.264471963871</v>
       </c>
       <c r="H27" t="n">
-        <v>1919.415405405405</v>
+        <v>2240.149115371444</v>
       </c>
       <c r="I27" t="n">
-        <v>2207.652162162162</v>
+        <v>2898.498343348916</v>
       </c>
       <c r="J27" t="n">
-        <v>2272.552222222223</v>
+        <v>3992.576644895034</v>
       </c>
     </row>
   </sheetData>
